--- a/WebApi/Template/template.xlsx
+++ b/WebApi/Template/template.xlsx
@@ -91,7 +91,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -102,9 +102,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -340,7 +343,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3">
+      <c r="A3" s="5">
         <v>2.0</v>
       </c>
       <c r="B3" s="4">
@@ -348,7 +351,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3">
+      <c r="A4" s="5">
         <v>3.0</v>
       </c>
       <c r="B4" s="4">
@@ -356,7 +359,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3">
+      <c r="A5" s="5">
         <v>4.0</v>
       </c>
       <c r="B5" s="4">
@@ -364,7 +367,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3">
+      <c r="A6" s="5">
         <v>5.0</v>
       </c>
       <c r="B6" s="4">
@@ -372,7 +375,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3">
+      <c r="A7" s="5">
         <v>6.0</v>
       </c>
       <c r="B7" s="4">
@@ -380,7 +383,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3">
+      <c r="A8" s="5">
         <v>7.0</v>
       </c>
       <c r="B8" s="4">
@@ -388,7 +391,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3">
+      <c r="A9" s="5">
         <v>8.0</v>
       </c>
       <c r="B9" s="4">
@@ -396,7 +399,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3">
+      <c r="A10" s="5">
         <v>9.0</v>
       </c>
       <c r="B10" s="4">
@@ -404,7 +407,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3">
+      <c r="A11" s="5">
         <v>10.0</v>
       </c>
       <c r="B11" s="4">
@@ -412,7 +415,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3">
+      <c r="A12" s="5">
         <v>11.0</v>
       </c>
       <c r="B12" s="4">
@@ -420,7 +423,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3">
+      <c r="A13" s="5">
         <v>12.0</v>
       </c>
       <c r="B13" s="4">
@@ -428,7 +431,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3">
+      <c r="A14" s="5">
         <v>13.0</v>
       </c>
       <c r="B14" s="4">
@@ -436,7 +439,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3">
+      <c r="A15" s="5">
         <v>14.0</v>
       </c>
       <c r="B15" s="4">
@@ -444,7 +447,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3">
+      <c r="A16" s="5">
         <v>15.0</v>
       </c>
       <c r="B16" s="4">
@@ -452,7 +455,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3">
+      <c r="A17" s="5">
         <v>16.0</v>
       </c>
       <c r="B17" s="4">
@@ -460,7 +463,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3">
+      <c r="A18" s="5">
         <v>17.0</v>
       </c>
       <c r="B18" s="4">
@@ -468,7 +471,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3">
+      <c r="A19" s="5">
         <v>18.0</v>
       </c>
       <c r="B19" s="4">
@@ -476,7 +479,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3">
+      <c r="A20" s="5">
         <v>19.0</v>
       </c>
       <c r="B20" s="4">
@@ -484,7 +487,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3">
+      <c r="A21" s="5">
         <v>20.0</v>
       </c>
       <c r="B21" s="4">
@@ -492,7 +495,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3">
+      <c r="A22" s="5">
         <v>21.0</v>
       </c>
       <c r="B22" s="4">
@@ -500,7 +503,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3">
+      <c r="A23" s="5">
         <v>22.0</v>
       </c>
       <c r="B23" s="4">
@@ -508,7 +511,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3">
+      <c r="A24" s="5">
         <v>23.0</v>
       </c>
       <c r="B24" s="4">
@@ -516,7 +519,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3">
+      <c r="A25" s="5">
         <v>24.0</v>
       </c>
       <c r="B25" s="4">
@@ -524,7 +527,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3">
+      <c r="A26" s="5">
         <v>25.0</v>
       </c>
       <c r="B26" s="4">
@@ -532,7 +535,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3">
+      <c r="A27" s="5">
         <v>26.0</v>
       </c>
       <c r="B27" s="4">
@@ -540,7 +543,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3">
+      <c r="A28" s="5">
         <v>27.0</v>
       </c>
       <c r="B28" s="4">
@@ -548,7 +551,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3">
+      <c r="A29" s="5">
         <v>28.0</v>
       </c>
       <c r="B29" s="4">
@@ -556,7 +559,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3">
+      <c r="A30" s="5">
         <v>29.0</v>
       </c>
       <c r="B30" s="4">
@@ -564,7 +567,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3">
+      <c r="A31" s="5">
         <v>30.0</v>
       </c>
       <c r="B31" s="4">
@@ -572,7 +575,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3">
+      <c r="A32" s="5">
         <v>31.0</v>
       </c>
       <c r="B32" s="4">
@@ -580,7 +583,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3">
+      <c r="A33" s="5">
         <v>32.0</v>
       </c>
       <c r="B33" s="4">
@@ -588,7 +591,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="3">
+      <c r="A34" s="5">
         <v>33.0</v>
       </c>
       <c r="B34" s="4">
@@ -596,7 +599,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="3">
+      <c r="A35" s="5">
         <v>34.0</v>
       </c>
       <c r="B35" s="4">
@@ -604,7 +607,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3">
+      <c r="A36" s="5">
         <v>35.0</v>
       </c>
       <c r="B36" s="4">
@@ -612,7 +615,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3">
+      <c r="A37" s="5">
         <v>36.0</v>
       </c>
       <c r="B37" s="4">
@@ -620,7 +623,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3">
+      <c r="A38" s="5">
         <v>37.0</v>
       </c>
       <c r="B38" s="4">
@@ -628,7 +631,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3">
+      <c r="A39" s="5">
         <v>38.0</v>
       </c>
       <c r="B39" s="4">
@@ -636,7 +639,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3">
+      <c r="A40" s="5">
         <v>39.0</v>
       </c>
       <c r="B40" s="4">
@@ -644,7 +647,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3">
+      <c r="A41" s="5">
         <v>40.0</v>
       </c>
       <c r="B41" s="4">
@@ -652,7 +655,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3">
+      <c r="A42" s="5">
         <v>41.0</v>
       </c>
       <c r="B42" s="4">
@@ -660,7 +663,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3">
+      <c r="A43" s="5">
         <v>42.0</v>
       </c>
       <c r="B43" s="4">
@@ -668,7 +671,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3">
+      <c r="A44" s="5">
         <v>43.0</v>
       </c>
       <c r="B44" s="4">
@@ -676,7 +679,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3">
+      <c r="A45" s="5">
         <v>44.0</v>
       </c>
       <c r="B45" s="4">
@@ -684,7 +687,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="3">
+      <c r="A46" s="5">
         <v>45.0</v>
       </c>
       <c r="B46" s="4">
@@ -692,7 +695,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3">
+      <c r="A47" s="5">
         <v>46.0</v>
       </c>
       <c r="B47" s="4">
@@ -700,7 +703,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="3">
+      <c r="A48" s="5">
         <v>47.0</v>
       </c>
       <c r="B48" s="4">
@@ -708,7 +711,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="3">
+      <c r="A49" s="5">
         <v>48.0</v>
       </c>
       <c r="B49" s="4">
@@ -716,7 +719,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="3">
+      <c r="A50" s="5">
         <v>49.0</v>
       </c>
       <c r="B50" s="4">
@@ -724,7 +727,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="3">
+      <c r="A51" s="5">
         <v>50.0</v>
       </c>
       <c r="B51" s="4">
@@ -732,7 +735,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="3">
+      <c r="A52" s="5">
         <v>51.0</v>
       </c>
       <c r="B52" s="4">
@@ -740,7 +743,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="3">
+      <c r="A53" s="5">
         <v>52.0</v>
       </c>
       <c r="B53" s="4">
@@ -748,7 +751,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="3">
+      <c r="A54" s="5">
         <v>53.0</v>
       </c>
       <c r="B54" s="4">
@@ -756,7 +759,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="3">
+      <c r="A55" s="5">
         <v>54.0</v>
       </c>
       <c r="B55" s="4">
@@ -764,7 +767,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="3">
+      <c r="A56" s="5">
         <v>55.0</v>
       </c>
       <c r="B56" s="4">
@@ -772,7 +775,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="3">
+      <c r="A57" s="5">
         <v>56.0</v>
       </c>
       <c r="B57" s="4">
@@ -780,7 +783,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="3">
+      <c r="A58" s="5">
         <v>57.0</v>
       </c>
       <c r="B58" s="4">
@@ -788,7 +791,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="3">
+      <c r="A59" s="5">
         <v>58.0</v>
       </c>
       <c r="B59" s="4">
@@ -796,7 +799,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="3">
+      <c r="A60" s="5">
         <v>59.0</v>
       </c>
       <c r="B60" s="4">
@@ -804,7 +807,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="3">
+      <c r="A61" s="5">
         <v>60.0</v>
       </c>
       <c r="B61" s="4">
@@ -812,7 +815,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="3">
+      <c r="A62" s="5">
         <v>61.0</v>
       </c>
       <c r="B62" s="4">
@@ -820,7 +823,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="3">
+      <c r="A63" s="5">
         <v>62.0</v>
       </c>
       <c r="B63" s="4">
@@ -828,7 +831,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="3">
+      <c r="A64" s="5">
         <v>63.0</v>
       </c>
       <c r="B64" s="4">
@@ -836,7 +839,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="3">
+      <c r="A65" s="5">
         <v>64.0</v>
       </c>
       <c r="B65" s="4">
@@ -844,7 +847,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="3">
+      <c r="A66" s="5">
         <v>65.0</v>
       </c>
       <c r="B66" s="4">
@@ -852,7 +855,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="3">
+      <c r="A67" s="5">
         <v>66.0</v>
       </c>
       <c r="B67" s="4">
@@ -860,7 +863,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="3">
+      <c r="A68" s="5">
         <v>67.0</v>
       </c>
       <c r="B68" s="4">
@@ -868,7 +871,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="3">
+      <c r="A69" s="5">
         <v>68.0</v>
       </c>
       <c r="B69" s="4">
@@ -876,7 +879,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="3">
+      <c r="A70" s="5">
         <v>69.0</v>
       </c>
       <c r="B70" s="4">
@@ -884,7 +887,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="3">
+      <c r="A71" s="5">
         <v>70.0</v>
       </c>
       <c r="B71" s="4">
@@ -892,7 +895,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="3">
+      <c r="A72" s="5">
         <v>71.0</v>
       </c>
       <c r="B72" s="4">
@@ -900,7 +903,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="3">
+      <c r="A73" s="5">
         <v>72.0</v>
       </c>
       <c r="B73" s="4">
@@ -908,7 +911,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="3">
+      <c r="A74" s="5">
         <v>73.0</v>
       </c>
       <c r="B74" s="4">
@@ -916,7 +919,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="3">
+      <c r="A75" s="5">
         <v>74.0</v>
       </c>
       <c r="B75" s="4">
@@ -924,7 +927,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="3">
+      <c r="A76" s="5">
         <v>75.0</v>
       </c>
       <c r="B76" s="4">
@@ -932,7 +935,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="3">
+      <c r="A77" s="5">
         <v>76.0</v>
       </c>
       <c r="B77" s="4">
@@ -940,7 +943,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="3">
+      <c r="A78" s="5">
         <v>77.0</v>
       </c>
       <c r="B78" s="4">
@@ -948,7 +951,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="3">
+      <c r="A79" s="5">
         <v>78.0</v>
       </c>
       <c r="B79" s="4">
@@ -956,7 +959,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="3">
+      <c r="A80" s="5">
         <v>79.0</v>
       </c>
       <c r="B80" s="4">
@@ -964,7 +967,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="3">
+      <c r="A81" s="5">
         <v>80.0</v>
       </c>
       <c r="B81" s="4">
@@ -972,7 +975,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="3">
+      <c r="A82" s="5">
         <v>81.0</v>
       </c>
       <c r="B82" s="4">
@@ -980,7 +983,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="3">
+      <c r="A83" s="5">
         <v>82.0</v>
       </c>
       <c r="B83" s="4">
@@ -988,7 +991,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="3">
+      <c r="A84" s="5">
         <v>83.0</v>
       </c>
       <c r="B84" s="4">
@@ -996,7 +999,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="3">
+      <c r="A85" s="5">
         <v>84.0</v>
       </c>
       <c r="B85" s="4">
@@ -1004,7 +1007,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="3">
+      <c r="A86" s="5">
         <v>85.0</v>
       </c>
       <c r="B86" s="4">
@@ -1012,7 +1015,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="3">
+      <c r="A87" s="5">
         <v>86.0</v>
       </c>
       <c r="B87" s="4">
@@ -1020,7 +1023,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="3">
+      <c r="A88" s="5">
         <v>87.0</v>
       </c>
       <c r="B88" s="4">
@@ -1028,7 +1031,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="3">
+      <c r="A89" s="5">
         <v>88.0</v>
       </c>
       <c r="B89" s="4">
@@ -1036,7 +1039,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="3">
+      <c r="A90" s="5">
         <v>89.0</v>
       </c>
       <c r="B90" s="4">
@@ -1044,7 +1047,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="3">
+      <c r="A91" s="5">
         <v>90.0</v>
       </c>
       <c r="B91" s="4">
@@ -1052,7 +1055,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="3">
+      <c r="A92" s="5">
         <v>91.0</v>
       </c>
       <c r="B92" s="4">
@@ -1060,7 +1063,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="3">
+      <c r="A93" s="5">
         <v>92.0</v>
       </c>
       <c r="B93" s="4">
@@ -1068,7 +1071,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="3">
+      <c r="A94" s="5">
         <v>93.0</v>
       </c>
       <c r="B94" s="4">
@@ -1076,7 +1079,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="3">
+      <c r="A95" s="5">
         <v>94.0</v>
       </c>
       <c r="B95" s="4">
@@ -1084,7 +1087,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="3">
+      <c r="A96" s="5">
         <v>95.0</v>
       </c>
       <c r="B96" s="4">
@@ -1092,7 +1095,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="3">
+      <c r="A97" s="5">
         <v>96.0</v>
       </c>
       <c r="B97" s="4">
@@ -1100,7 +1103,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="3">
+      <c r="A98" s="5">
         <v>97.0</v>
       </c>
       <c r="B98" s="4">
@@ -1108,7 +1111,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="3">
+      <c r="A99" s="5">
         <v>98.0</v>
       </c>
       <c r="B99" s="4">
@@ -1116,7 +1119,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="3">
+      <c r="A100" s="5">
         <v>99.0</v>
       </c>
       <c r="B100" s="4">
@@ -1124,7 +1127,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="3">
+      <c r="A101" s="5">
         <v>100.0</v>
       </c>
       <c r="B101" s="4">
@@ -1132,7 +1135,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="3">
+      <c r="A102" s="5">
         <v>101.0</v>
       </c>
       <c r="B102" s="4">
@@ -1140,7 +1143,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="3">
+      <c r="A103" s="5">
         <v>102.0</v>
       </c>
       <c r="B103" s="4">
@@ -1148,7 +1151,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="3">
+      <c r="A104" s="5">
         <v>103.0</v>
       </c>
       <c r="B104" s="4">
@@ -1156,7 +1159,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="3">
+      <c r="A105" s="5">
         <v>104.0</v>
       </c>
       <c r="B105" s="4">
@@ -1164,7 +1167,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="3">
+      <c r="A106" s="5">
         <v>105.0</v>
       </c>
       <c r="B106" s="4">
@@ -1172,7 +1175,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="3">
+      <c r="A107" s="5">
         <v>106.0</v>
       </c>
       <c r="B107" s="4">
@@ -1180,7 +1183,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="3">
+      <c r="A108" s="5">
         <v>107.0</v>
       </c>
       <c r="B108" s="4">
@@ -1188,7 +1191,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="3">
+      <c r="A109" s="5">
         <v>108.0</v>
       </c>
       <c r="B109" s="4">
@@ -1196,7 +1199,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="3">
+      <c r="A110" s="5">
         <v>109.0</v>
       </c>
       <c r="B110" s="4">
@@ -1204,7 +1207,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="3">
+      <c r="A111" s="5">
         <v>110.0</v>
       </c>
       <c r="B111" s="4">
@@ -1212,7 +1215,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="3">
+      <c r="A112" s="5">
         <v>111.0</v>
       </c>
       <c r="B112" s="4">
@@ -1220,7 +1223,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="3">
+      <c r="A113" s="5">
         <v>112.0</v>
       </c>
       <c r="B113" s="4">
@@ -1228,7 +1231,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="3">
+      <c r="A114" s="5">
         <v>113.0</v>
       </c>
       <c r="B114" s="4">
@@ -1236,7 +1239,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="3">
+      <c r="A115" s="5">
         <v>114.0</v>
       </c>
       <c r="B115" s="4">
@@ -1244,7 +1247,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="3">
+      <c r="A116" s="5">
         <v>115.0</v>
       </c>
       <c r="B116" s="4">
@@ -1252,7 +1255,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="3">
+      <c r="A117" s="5">
         <v>116.0</v>
       </c>
       <c r="B117" s="4">
@@ -1260,7 +1263,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="3">
+      <c r="A118" s="5">
         <v>117.0</v>
       </c>
       <c r="B118" s="4">
@@ -1268,7 +1271,7 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="3">
+      <c r="A119" s="5">
         <v>118.0</v>
       </c>
       <c r="B119" s="4">
@@ -1276,7 +1279,7 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="3">
+      <c r="A120" s="5">
         <v>119.0</v>
       </c>
       <c r="B120" s="4">
@@ -1284,7 +1287,7 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="3">
+      <c r="A121" s="5">
         <v>120.0</v>
       </c>
       <c r="B121" s="4">
@@ -1292,7 +1295,7 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="3">
+      <c r="A122" s="5">
         <v>121.0</v>
       </c>
       <c r="B122" s="4">
@@ -1300,7 +1303,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="3">
+      <c r="A123" s="5">
         <v>122.0</v>
       </c>
       <c r="B123" s="4">
@@ -1308,7 +1311,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="3">
+      <c r="A124" s="5">
         <v>123.0</v>
       </c>
       <c r="B124" s="4">
@@ -1316,7 +1319,7 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="3">
+      <c r="A125" s="5">
         <v>124.0</v>
       </c>
       <c r="B125" s="4">
@@ -1324,7 +1327,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="3">
+      <c r="A126" s="5">
         <v>125.0</v>
       </c>
       <c r="B126" s="4">
@@ -1332,7 +1335,7 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="3">
+      <c r="A127" s="5">
         <v>126.0</v>
       </c>
       <c r="B127" s="4">
@@ -1340,7 +1343,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="3">
+      <c r="A128" s="5">
         <v>127.0</v>
       </c>
       <c r="B128" s="4">
@@ -1348,7 +1351,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="3">
+      <c r="A129" s="5">
         <v>128.0</v>
       </c>
       <c r="B129" s="4">
@@ -1356,7 +1359,7 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="3">
+      <c r="A130" s="5">
         <v>129.0</v>
       </c>
       <c r="B130" s="4">
@@ -1364,7 +1367,7 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="3">
+      <c r="A131" s="5">
         <v>130.0</v>
       </c>
       <c r="B131" s="4">
@@ -1372,7 +1375,7 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="3">
+      <c r="A132" s="5">
         <v>131.0</v>
       </c>
       <c r="B132" s="4">
@@ -1380,7 +1383,7 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="3">
+      <c r="A133" s="5">
         <v>132.0</v>
       </c>
       <c r="B133" s="4">
@@ -1388,7 +1391,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="3">
+      <c r="A134" s="5">
         <v>133.0</v>
       </c>
       <c r="B134" s="4">
@@ -1396,7 +1399,7 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="3">
+      <c r="A135" s="5">
         <v>134.0</v>
       </c>
       <c r="B135" s="4">
@@ -1404,7 +1407,7 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="3">
+      <c r="A136" s="5">
         <v>135.0</v>
       </c>
       <c r="B136" s="4">
@@ -1412,7 +1415,7 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="3">
+      <c r="A137" s="5">
         <v>136.0</v>
       </c>
       <c r="B137" s="4">
@@ -1420,7 +1423,7 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="3">
+      <c r="A138" s="5">
         <v>137.0</v>
       </c>
       <c r="B138" s="4">
@@ -1428,7 +1431,7 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="3">
+      <c r="A139" s="5">
         <v>138.0</v>
       </c>
       <c r="B139" s="4">
@@ -1436,7 +1439,7 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="3">
+      <c r="A140" s="5">
         <v>139.0</v>
       </c>
       <c r="B140" s="4">
@@ -1444,7 +1447,7 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="3">
+      <c r="A141" s="5">
         <v>140.0</v>
       </c>
       <c r="B141" s="4">
@@ -1452,7 +1455,7 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="3">
+      <c r="A142" s="5">
         <v>141.0</v>
       </c>
       <c r="B142" s="4">
@@ -1460,7 +1463,7 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="3">
+      <c r="A143" s="5">
         <v>142.0</v>
       </c>
       <c r="B143" s="4">
@@ -1468,7 +1471,7 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="3">
+      <c r="A144" s="5">
         <v>143.0</v>
       </c>
       <c r="B144" s="4">
@@ -1476,7 +1479,7 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="3">
+      <c r="A145" s="5">
         <v>144.0</v>
       </c>
       <c r="B145" s="4">
@@ -1484,7 +1487,7 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="3">
+      <c r="A146" s="5">
         <v>145.0</v>
       </c>
       <c r="B146" s="4">
@@ -1492,7 +1495,7 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="3">
+      <c r="A147" s="5">
         <v>146.0</v>
       </c>
       <c r="B147" s="4">
@@ -1500,7 +1503,7 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="3">
+      <c r="A148" s="5">
         <v>147.0</v>
       </c>
       <c r="B148" s="4">
@@ -1508,7 +1511,7 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="3">
+      <c r="A149" s="5">
         <v>148.0</v>
       </c>
       <c r="B149" s="4">
@@ -1516,7 +1519,7 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="3">
+      <c r="A150" s="5">
         <v>149.0</v>
       </c>
       <c r="B150" s="4">
@@ -1524,7 +1527,7 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="3">
+      <c r="A151" s="5">
         <v>150.0</v>
       </c>
       <c r="B151" s="4">
@@ -1532,7 +1535,7 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="3">
+      <c r="A152" s="5">
         <v>151.0</v>
       </c>
       <c r="B152" s="4">
@@ -1540,7 +1543,7 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="3">
+      <c r="A153" s="5">
         <v>152.0</v>
       </c>
       <c r="B153" s="4">
@@ -1548,7 +1551,7 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="3">
+      <c r="A154" s="5">
         <v>153.0</v>
       </c>
       <c r="B154" s="4">
@@ -1556,7 +1559,7 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="3">
+      <c r="A155" s="5">
         <v>154.0</v>
       </c>
       <c r="B155" s="4">
@@ -1564,7 +1567,7 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="3">
+      <c r="A156" s="5">
         <v>155.0</v>
       </c>
       <c r="B156" s="4">
@@ -1572,7 +1575,7 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="3">
+      <c r="A157" s="5">
         <v>156.0</v>
       </c>
       <c r="B157" s="4">
@@ -1580,7 +1583,7 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="3">
+      <c r="A158" s="5">
         <v>157.0</v>
       </c>
       <c r="B158" s="4">
@@ -1588,7 +1591,7 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="3">
+      <c r="A159" s="5">
         <v>158.0</v>
       </c>
       <c r="B159" s="4">
@@ -1596,7 +1599,7 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="3">
+      <c r="A160" s="5">
         <v>159.0</v>
       </c>
       <c r="B160" s="4">
@@ -1604,7 +1607,7 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="3">
+      <c r="A161" s="5">
         <v>160.0</v>
       </c>
       <c r="B161" s="4">
@@ -1612,7 +1615,7 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="3">
+      <c r="A162" s="5">
         <v>161.0</v>
       </c>
       <c r="B162" s="4">
@@ -1620,7 +1623,7 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="3">
+      <c r="A163" s="5">
         <v>162.0</v>
       </c>
       <c r="B163" s="4">
@@ -1628,7 +1631,7 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="3">
+      <c r="A164" s="5">
         <v>163.0</v>
       </c>
       <c r="B164" s="4">
@@ -1636,7 +1639,7 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="3">
+      <c r="A165" s="5">
         <v>164.0</v>
       </c>
       <c r="B165" s="4">
@@ -1644,7 +1647,7 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="3">
+      <c r="A166" s="5">
         <v>165.0</v>
       </c>
       <c r="B166" s="4">
@@ -1652,7 +1655,7 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="3">
+      <c r="A167" s="5">
         <v>166.0</v>
       </c>
       <c r="B167" s="4">
@@ -1660,7 +1663,7 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="3">
+      <c r="A168" s="5">
         <v>167.0</v>
       </c>
       <c r="B168" s="4">
@@ -1668,7 +1671,7 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="3">
+      <c r="A169" s="5">
         <v>168.0</v>
       </c>
       <c r="B169" s="4">
@@ -1676,7 +1679,7 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="3">
+      <c r="A170" s="5">
         <v>169.0</v>
       </c>
       <c r="B170" s="4">
@@ -1684,7 +1687,7 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="3">
+      <c r="A171" s="5">
         <v>170.0</v>
       </c>
       <c r="B171" s="4">
@@ -1692,7 +1695,7 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="3">
+      <c r="A172" s="5">
         <v>171.0</v>
       </c>
       <c r="B172" s="4">
@@ -1700,7 +1703,7 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="3">
+      <c r="A173" s="5">
         <v>172.0</v>
       </c>
       <c r="B173" s="4">
@@ -1708,7 +1711,7 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="3">
+      <c r="A174" s="5">
         <v>173.0</v>
       </c>
       <c r="B174" s="4">
@@ -1716,7 +1719,7 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="3">
+      <c r="A175" s="5">
         <v>174.0</v>
       </c>
       <c r="B175" s="4">
@@ -1724,7 +1727,7 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="3">
+      <c r="A176" s="5">
         <v>175.0</v>
       </c>
       <c r="B176" s="4">
@@ -1732,7 +1735,7 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="3">
+      <c r="A177" s="5">
         <v>176.0</v>
       </c>
       <c r="B177" s="4">
@@ -1740,7 +1743,7 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="3">
+      <c r="A178" s="5">
         <v>177.0</v>
       </c>
       <c r="B178" s="4">
@@ -1748,7 +1751,7 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="3">
+      <c r="A179" s="5">
         <v>178.0</v>
       </c>
       <c r="B179" s="4">
@@ -1756,7 +1759,7 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="3">
+      <c r="A180" s="5">
         <v>179.0</v>
       </c>
       <c r="B180" s="4">
@@ -1764,7 +1767,7 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="3">
+      <c r="A181" s="5">
         <v>180.0</v>
       </c>
       <c r="B181" s="4">
@@ -1772,7 +1775,7 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="3">
+      <c r="A182" s="5">
         <v>181.0</v>
       </c>
       <c r="B182" s="4">
@@ -1780,7 +1783,7 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="3">
+      <c r="A183" s="5">
         <v>182.0</v>
       </c>
       <c r="B183" s="4">
@@ -1788,7 +1791,7 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="3">
+      <c r="A184" s="5">
         <v>183.0</v>
       </c>
       <c r="B184" s="4">
@@ -1796,7 +1799,7 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="3">
+      <c r="A185" s="5">
         <v>184.0</v>
       </c>
       <c r="B185" s="4">
@@ -1804,7 +1807,7 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="3">
+      <c r="A186" s="5">
         <v>185.0</v>
       </c>
       <c r="B186" s="4">
@@ -1812,7 +1815,7 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="3">
+      <c r="A187" s="5">
         <v>186.0</v>
       </c>
       <c r="B187" s="4">
@@ -1820,7 +1823,7 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="3">
+      <c r="A188" s="5">
         <v>187.0</v>
       </c>
       <c r="B188" s="4">
@@ -1828,7 +1831,7 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="3">
+      <c r="A189" s="5">
         <v>188.0</v>
       </c>
       <c r="B189" s="4">
@@ -1836,7 +1839,7 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="3">
+      <c r="A190" s="5">
         <v>189.0</v>
       </c>
       <c r="B190" s="4">
@@ -1844,7 +1847,7 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="3">
+      <c r="A191" s="5">
         <v>190.0</v>
       </c>
       <c r="B191" s="4">
@@ -1852,7 +1855,7 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="3">
+      <c r="A192" s="5">
         <v>191.0</v>
       </c>
       <c r="B192" s="4">
@@ -1860,7 +1863,7 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="3">
+      <c r="A193" s="5">
         <v>192.0</v>
       </c>
       <c r="B193" s="4">
@@ -1868,7 +1871,7 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="3">
+      <c r="A194" s="5">
         <v>193.0</v>
       </c>
       <c r="B194" s="4">
@@ -1876,7 +1879,7 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="3">
+      <c r="A195" s="5">
         <v>194.0</v>
       </c>
       <c r="B195" s="4">
@@ -1884,7 +1887,7 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="3">
+      <c r="A196" s="5">
         <v>195.0</v>
       </c>
       <c r="B196" s="4">
@@ -1892,7 +1895,7 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="3">
+      <c r="A197" s="5">
         <v>196.0</v>
       </c>
       <c r="B197" s="4">
@@ -1900,7 +1903,7 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="3">
+      <c r="A198" s="5">
         <v>197.0</v>
       </c>
       <c r="B198" s="4">
@@ -1908,7 +1911,7 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="3">
+      <c r="A199" s="5">
         <v>198.0</v>
       </c>
       <c r="B199" s="4">
@@ -1916,7 +1919,7 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="3">
+      <c r="A200" s="5">
         <v>199.0</v>
       </c>
       <c r="B200" s="4">
@@ -1924,7 +1927,7 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="3">
+      <c r="A201" s="5">
         <v>200.0</v>
       </c>
       <c r="B201" s="4">
@@ -1932,7 +1935,7 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="3">
+      <c r="A202" s="5">
         <v>201.0</v>
       </c>
       <c r="B202" s="4">
@@ -1940,7 +1943,7 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="3">
+      <c r="A203" s="5">
         <v>202.0</v>
       </c>
       <c r="B203" s="4">
@@ -1948,7 +1951,7 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="3">
+      <c r="A204" s="5">
         <v>203.0</v>
       </c>
       <c r="B204" s="4">
@@ -1956,7 +1959,7 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="3">
+      <c r="A205" s="5">
         <v>204.0</v>
       </c>
       <c r="B205" s="4">
@@ -1964,7 +1967,7 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="3">
+      <c r="A206" s="5">
         <v>205.0</v>
       </c>
       <c r="B206" s="4">
@@ -1972,7 +1975,7 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="3">
+      <c r="A207" s="5">
         <v>206.0</v>
       </c>
       <c r="B207" s="4">
@@ -1980,7 +1983,7 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="3">
+      <c r="A208" s="5">
         <v>207.0</v>
       </c>
       <c r="B208" s="4">
@@ -1988,7 +1991,7 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="3">
+      <c r="A209" s="5">
         <v>208.0</v>
       </c>
       <c r="B209" s="4">
@@ -1996,7 +1999,7 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="3">
+      <c r="A210" s="5">
         <v>209.0</v>
       </c>
       <c r="B210" s="4">
@@ -2004,7 +2007,7 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="3">
+      <c r="A211" s="5">
         <v>210.0</v>
       </c>
       <c r="B211" s="4">
@@ -2012,7 +2015,7 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="3">
+      <c r="A212" s="5">
         <v>211.0</v>
       </c>
       <c r="B212" s="4">
@@ -2020,7 +2023,7 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="3">
+      <c r="A213" s="5">
         <v>212.0</v>
       </c>
       <c r="B213" s="4">
@@ -2028,7 +2031,7 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="3">
+      <c r="A214" s="5">
         <v>213.0</v>
       </c>
       <c r="B214" s="4">
@@ -2036,7 +2039,7 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="3">
+      <c r="A215" s="5">
         <v>214.0</v>
       </c>
       <c r="B215" s="4">
@@ -2044,7 +2047,7 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="3">
+      <c r="A216" s="5">
         <v>215.0</v>
       </c>
       <c r="B216" s="4">
@@ -2052,7 +2055,7 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="3">
+      <c r="A217" s="5">
         <v>216.0</v>
       </c>
       <c r="B217" s="4">
@@ -2060,7 +2063,7 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="3">
+      <c r="A218" s="5">
         <v>217.0</v>
       </c>
       <c r="B218" s="4">
@@ -2068,7 +2071,7 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="3">
+      <c r="A219" s="5">
         <v>218.0</v>
       </c>
       <c r="B219" s="4">
@@ -2076,7 +2079,7 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="3">
+      <c r="A220" s="5">
         <v>219.0</v>
       </c>
       <c r="B220" s="4">
@@ -2084,7 +2087,7 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="3">
+      <c r="A221" s="5">
         <v>220.0</v>
       </c>
       <c r="B221" s="4">
@@ -2092,7 +2095,7 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="3">
+      <c r="A222" s="5">
         <v>221.0</v>
       </c>
       <c r="B222" s="4">
@@ -2100,7 +2103,7 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="3">
+      <c r="A223" s="5">
         <v>222.0</v>
       </c>
       <c r="B223" s="4">
@@ -2108,7 +2111,7 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="3">
+      <c r="A224" s="5">
         <v>223.0</v>
       </c>
       <c r="B224" s="4">
@@ -2116,7 +2119,7 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="3">
+      <c r="A225" s="5">
         <v>224.0</v>
       </c>
       <c r="B225" s="4">
@@ -2124,7 +2127,7 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="3">
+      <c r="A226" s="5">
         <v>225.0</v>
       </c>
       <c r="B226" s="4">
@@ -2132,7 +2135,7 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="3">
+      <c r="A227" s="5">
         <v>226.0</v>
       </c>
       <c r="B227" s="4">
@@ -2140,7 +2143,7 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="3">
+      <c r="A228" s="5">
         <v>227.0</v>
       </c>
       <c r="B228" s="4">
@@ -2148,7 +2151,7 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="3">
+      <c r="A229" s="5">
         <v>228.0</v>
       </c>
       <c r="B229" s="4">
@@ -2156,7 +2159,7 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="3">
+      <c r="A230" s="5">
         <v>229.0</v>
       </c>
       <c r="B230" s="4">
@@ -2164,7 +2167,7 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="3">
+      <c r="A231" s="5">
         <v>230.0</v>
       </c>
       <c r="B231" s="4">
@@ -2172,7 +2175,7 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="3">
+      <c r="A232" s="5">
         <v>231.0</v>
       </c>
       <c r="B232" s="4">
@@ -2180,7 +2183,7 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="3">
+      <c r="A233" s="5">
         <v>232.0</v>
       </c>
       <c r="B233" s="4">
@@ -2188,7 +2191,7 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="3">
+      <c r="A234" s="5">
         <v>233.0</v>
       </c>
       <c r="B234" s="4">
@@ -2196,7 +2199,7 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="3">
+      <c r="A235" s="5">
         <v>234.0</v>
       </c>
       <c r="B235" s="4">
@@ -2204,7 +2207,7 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="3">
+      <c r="A236" s="5">
         <v>235.0</v>
       </c>
       <c r="B236" s="4">
@@ -2212,7 +2215,7 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="3">
+      <c r="A237" s="5">
         <v>236.0</v>
       </c>
       <c r="B237" s="4">
@@ -2220,7 +2223,7 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="3">
+      <c r="A238" s="5">
         <v>237.0</v>
       </c>
       <c r="B238" s="4">
@@ -2228,7 +2231,7 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="3">
+      <c r="A239" s="5">
         <v>238.0</v>
       </c>
       <c r="B239" s="4">
@@ -2236,7 +2239,7 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="3">
+      <c r="A240" s="5">
         <v>239.0</v>
       </c>
       <c r="B240" s="4">
@@ -2244,7 +2247,7 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="3">
+      <c r="A241" s="5">
         <v>240.0</v>
       </c>
       <c r="B241" s="4">
@@ -2252,7 +2255,7 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="3">
+      <c r="A242" s="5">
         <v>241.0</v>
       </c>
       <c r="B242" s="4">
@@ -2260,7 +2263,7 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="3">
+      <c r="A243" s="5">
         <v>242.0</v>
       </c>
       <c r="B243" s="4">
@@ -2268,7 +2271,7 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="3">
+      <c r="A244" s="5">
         <v>243.0</v>
       </c>
       <c r="B244" s="4">
@@ -2276,7 +2279,7 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="3">
+      <c r="A245" s="5">
         <v>244.0</v>
       </c>
       <c r="B245" s="4">
@@ -2284,7 +2287,7 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="3">
+      <c r="A246" s="5">
         <v>245.0</v>
       </c>
       <c r="B246" s="4">
@@ -2292,7 +2295,7 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="3">
+      <c r="A247" s="5">
         <v>246.0</v>
       </c>
       <c r="B247" s="4">
@@ -2300,7 +2303,7 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="3">
+      <c r="A248" s="5">
         <v>247.0</v>
       </c>
       <c r="B248" s="4">
@@ -2308,7 +2311,7 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="3">
+      <c r="A249" s="5">
         <v>248.0</v>
       </c>
       <c r="B249" s="4">
@@ -2316,7 +2319,7 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="3">
+      <c r="A250" s="5">
         <v>249.0</v>
       </c>
       <c r="B250" s="4">
@@ -2324,7 +2327,7 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="3">
+      <c r="A251" s="5">
         <v>250.0</v>
       </c>
       <c r="B251" s="4">
@@ -2332,7 +2335,7 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="3">
+      <c r="A252" s="5">
         <v>251.0</v>
       </c>
       <c r="B252" s="4">
@@ -2340,7 +2343,7 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="3">
+      <c r="A253" s="5">
         <v>252.0</v>
       </c>
       <c r="B253" s="4">
@@ -2348,7 +2351,7 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="3">
+      <c r="A254" s="5">
         <v>253.0</v>
       </c>
       <c r="B254" s="4">
@@ -2356,7 +2359,7 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="3">
+      <c r="A255" s="5">
         <v>254.0</v>
       </c>
       <c r="B255" s="4">
@@ -2364,7 +2367,7 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="3">
+      <c r="A256" s="5">
         <v>255.0</v>
       </c>
       <c r="B256" s="4">
@@ -2372,7 +2375,7 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="3">
+      <c r="A257" s="5">
         <v>256.0</v>
       </c>
       <c r="B257" s="4">
@@ -2380,7 +2383,7 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="3">
+      <c r="A258" s="5">
         <v>257.0</v>
       </c>
       <c r="B258" s="4">
@@ -2388,7 +2391,7 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="3">
+      <c r="A259" s="5">
         <v>258.0</v>
       </c>
       <c r="B259" s="4">
@@ -2396,7 +2399,7 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="3">
+      <c r="A260" s="5">
         <v>259.0</v>
       </c>
       <c r="B260" s="4">
@@ -2404,7 +2407,7 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="3">
+      <c r="A261" s="5">
         <v>260.0</v>
       </c>
       <c r="B261" s="4">
@@ -2412,7 +2415,7 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="3">
+      <c r="A262" s="5">
         <v>261.0</v>
       </c>
       <c r="B262" s="4">
@@ -2420,7 +2423,7 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="3">
+      <c r="A263" s="5">
         <v>262.0</v>
       </c>
       <c r="B263" s="4">
@@ -2428,7 +2431,7 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="3">
+      <c r="A264" s="5">
         <v>263.0</v>
       </c>
       <c r="B264" s="4">
@@ -2436,7 +2439,7 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="3">
+      <c r="A265" s="5">
         <v>264.0</v>
       </c>
       <c r="B265" s="4">
@@ -2444,7 +2447,7 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="3">
+      <c r="A266" s="5">
         <v>265.0</v>
       </c>
       <c r="B266" s="4">
@@ -2452,7 +2455,7 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="3">
+      <c r="A267" s="5">
         <v>266.0</v>
       </c>
       <c r="B267" s="4">
@@ -2460,7 +2463,7 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="3">
+      <c r="A268" s="5">
         <v>267.0</v>
       </c>
       <c r="B268" s="4">
@@ -2468,7 +2471,7 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="3">
+      <c r="A269" s="5">
         <v>268.0</v>
       </c>
       <c r="B269" s="4">
@@ -2476,7 +2479,7 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="3">
+      <c r="A270" s="5">
         <v>269.0</v>
       </c>
       <c r="B270" s="4">
@@ -2484,7 +2487,7 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="3">
+      <c r="A271" s="5">
         <v>270.0</v>
       </c>
       <c r="B271" s="4">
@@ -2492,7 +2495,7 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="3">
+      <c r="A272" s="5">
         <v>271.0</v>
       </c>
       <c r="B272" s="4">
@@ -2500,7 +2503,7 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="3">
+      <c r="A273" s="5">
         <v>272.0</v>
       </c>
       <c r="B273" s="4">
@@ -2508,7 +2511,7 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="3">
+      <c r="A274" s="5">
         <v>273.0</v>
       </c>
       <c r="B274" s="4">
@@ -2516,7 +2519,7 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="3">
+      <c r="A275" s="5">
         <v>274.0</v>
       </c>
       <c r="B275" s="4">
@@ -2524,7 +2527,7 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="3">
+      <c r="A276" s="5">
         <v>275.0</v>
       </c>
       <c r="B276" s="4">
@@ -2532,7 +2535,7 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="3">
+      <c r="A277" s="5">
         <v>276.0</v>
       </c>
       <c r="B277" s="4">
@@ -2540,7 +2543,7 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="3">
+      <c r="A278" s="5">
         <v>277.0</v>
       </c>
       <c r="B278" s="4">
@@ -2548,7 +2551,7 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="3">
+      <c r="A279" s="5">
         <v>278.0</v>
       </c>
       <c r="B279" s="4">
@@ -2556,7 +2559,7 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="3">
+      <c r="A280" s="5">
         <v>279.0</v>
       </c>
       <c r="B280" s="4">
@@ -2564,7 +2567,7 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="3">
+      <c r="A281" s="5">
         <v>280.0</v>
       </c>
       <c r="B281" s="4">
@@ -2572,7 +2575,7 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="3">
+      <c r="A282" s="5">
         <v>281.0</v>
       </c>
       <c r="B282" s="4">
@@ -2580,7 +2583,7 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="3">
+      <c r="A283" s="5">
         <v>282.0</v>
       </c>
       <c r="B283" s="4">
@@ -2588,7 +2591,7 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="3">
+      <c r="A284" s="5">
         <v>283.0</v>
       </c>
       <c r="B284" s="4">
@@ -2596,7 +2599,7 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="3">
+      <c r="A285" s="5">
         <v>284.0</v>
       </c>
       <c r="B285" s="4">
@@ -2604,7 +2607,7 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" s="3">
+      <c r="A286" s="5">
         <v>285.0</v>
       </c>
       <c r="B286" s="4">
@@ -2612,7 +2615,7 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="3">
+      <c r="A287" s="5">
         <v>286.0</v>
       </c>
       <c r="B287" s="4">
@@ -2620,7 +2623,7 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="3">
+      <c r="A288" s="5">
         <v>287.0</v>
       </c>
       <c r="B288" s="4">
@@ -2628,7 +2631,7 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" s="3">
+      <c r="A289" s="5">
         <v>288.0</v>
       </c>
       <c r="B289" s="4">
@@ -2636,7 +2639,7 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="3">
+      <c r="A290" s="5">
         <v>289.0</v>
       </c>
       <c r="B290" s="4">
@@ -2644,7 +2647,7 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="3">
+      <c r="A291" s="5">
         <v>290.0</v>
       </c>
       <c r="B291" s="4">
@@ -2652,7 +2655,7 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="3">
+      <c r="A292" s="5">
         <v>291.0</v>
       </c>
       <c r="B292" s="4">
@@ -2660,7 +2663,7 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" s="3">
+      <c r="A293" s="5">
         <v>292.0</v>
       </c>
       <c r="B293" s="4">
@@ -2668,7 +2671,7 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" s="3">
+      <c r="A294" s="5">
         <v>293.0</v>
       </c>
       <c r="B294" s="4">
@@ -2676,7 +2679,7 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" s="3">
+      <c r="A295" s="5">
         <v>294.0</v>
       </c>
       <c r="B295" s="4">
@@ -2684,7 +2687,7 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" s="3">
+      <c r="A296" s="5">
         <v>295.0</v>
       </c>
       <c r="B296" s="4">
@@ -2692,7 +2695,7 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" s="3">
+      <c r="A297" s="5">
         <v>296.0</v>
       </c>
       <c r="B297" s="4">
@@ -2700,7 +2703,7 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" s="3">
+      <c r="A298" s="5">
         <v>297.0</v>
       </c>
       <c r="B298" s="4">
@@ -2708,7 +2711,7 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" s="3">
+      <c r="A299" s="5">
         <v>298.0</v>
       </c>
       <c r="B299" s="4">
@@ -2716,7 +2719,7 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" s="3">
+      <c r="A300" s="5">
         <v>299.0</v>
       </c>
       <c r="B300" s="4">
@@ -2724,7 +2727,7 @@
       </c>
     </row>
     <row r="301">
-      <c r="A301" s="3">
+      <c r="A301" s="5">
         <v>300.0</v>
       </c>
       <c r="B301" s="4">
@@ -2732,7 +2735,7 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" s="3">
+      <c r="A302" s="5">
         <v>301.0</v>
       </c>
       <c r="B302" s="4">
@@ -2740,7 +2743,7 @@
       </c>
     </row>
     <row r="303">
-      <c r="A303" s="3">
+      <c r="A303" s="5">
         <v>302.0</v>
       </c>
       <c r="B303" s="4">
@@ -2748,7 +2751,7 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" s="3">
+      <c r="A304" s="5">
         <v>303.0</v>
       </c>
       <c r="B304" s="4">
@@ -2756,7 +2759,7 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" s="3">
+      <c r="A305" s="5">
         <v>304.0</v>
       </c>
       <c r="B305" s="4">
@@ -2764,7 +2767,7 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" s="3">
+      <c r="A306" s="5">
         <v>305.0</v>
       </c>
       <c r="B306" s="4">
@@ -2772,7 +2775,7 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" s="3">
+      <c r="A307" s="5">
         <v>306.0</v>
       </c>
       <c r="B307" s="4">
@@ -2780,7 +2783,7 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" s="3">
+      <c r="A308" s="5">
         <v>307.0</v>
       </c>
       <c r="B308" s="4">
@@ -2788,7 +2791,7 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" s="3">
+      <c r="A309" s="5">
         <v>308.0</v>
       </c>
       <c r="B309" s="4">
@@ -2796,7 +2799,7 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" s="3">
+      <c r="A310" s="5">
         <v>309.0</v>
       </c>
       <c r="B310" s="4">
@@ -2804,7 +2807,7 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" s="3">
+      <c r="A311" s="5">
         <v>310.0</v>
       </c>
       <c r="B311" s="4">
@@ -2812,7 +2815,7 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" s="3">
+      <c r="A312" s="5">
         <v>311.0</v>
       </c>
       <c r="B312" s="4">
@@ -2820,7 +2823,7 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" s="3">
+      <c r="A313" s="5">
         <v>312.0</v>
       </c>
       <c r="B313" s="4">
@@ -2828,7 +2831,7 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" s="3">
+      <c r="A314" s="5">
         <v>313.0</v>
       </c>
       <c r="B314" s="4">
@@ -2836,7 +2839,7 @@
       </c>
     </row>
     <row r="315">
-      <c r="A315" s="3">
+      <c r="A315" s="5">
         <v>314.0</v>
       </c>
       <c r="B315" s="4">
@@ -2844,7 +2847,7 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" s="3">
+      <c r="A316" s="5">
         <v>315.0</v>
       </c>
       <c r="B316" s="4">
@@ -2852,7 +2855,7 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" s="3">
+      <c r="A317" s="5">
         <v>316.0</v>
       </c>
       <c r="B317" s="4">
@@ -2860,7 +2863,7 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" s="3">
+      <c r="A318" s="5">
         <v>317.0</v>
       </c>
       <c r="B318" s="4">
@@ -2868,7 +2871,7 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" s="3">
+      <c r="A319" s="5">
         <v>318.0</v>
       </c>
       <c r="B319" s="4">
@@ -2876,7 +2879,7 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" s="3">
+      <c r="A320" s="5">
         <v>319.0</v>
       </c>
       <c r="B320" s="4">
@@ -2884,7 +2887,7 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" s="3">
+      <c r="A321" s="5">
         <v>320.0</v>
       </c>
       <c r="B321" s="4">
@@ -2892,7 +2895,7 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" s="3">
+      <c r="A322" s="5">
         <v>321.0</v>
       </c>
       <c r="B322" s="4">
@@ -2900,7 +2903,7 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" s="3">
+      <c r="A323" s="5">
         <v>322.0</v>
       </c>
       <c r="B323" s="4">
@@ -2908,7 +2911,7 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" s="3">
+      <c r="A324" s="5">
         <v>323.0</v>
       </c>
       <c r="B324" s="4">
@@ -2916,7 +2919,7 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" s="3">
+      <c r="A325" s="5">
         <v>324.0</v>
       </c>
       <c r="B325" s="4">
@@ -2924,7 +2927,7 @@
       </c>
     </row>
     <row r="326">
-      <c r="A326" s="3">
+      <c r="A326" s="5">
         <v>325.0</v>
       </c>
       <c r="B326" s="4">
@@ -2932,7 +2935,7 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" s="3">
+      <c r="A327" s="5">
         <v>326.0</v>
       </c>
       <c r="B327" s="4">
@@ -2940,7 +2943,7 @@
       </c>
     </row>
     <row r="328">
-      <c r="A328" s="3">
+      <c r="A328" s="5">
         <v>327.0</v>
       </c>
       <c r="B328" s="4">
@@ -2948,7 +2951,7 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" s="3">
+      <c r="A329" s="5">
         <v>328.0</v>
       </c>
       <c r="B329" s="4">
@@ -2956,7 +2959,7 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" s="3">
+      <c r="A330" s="5">
         <v>329.0</v>
       </c>
       <c r="B330" s="4">
@@ -2964,7 +2967,7 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" s="3">
+      <c r="A331" s="5">
         <v>330.0</v>
       </c>
       <c r="B331" s="4">
@@ -2972,7 +2975,7 @@
       </c>
     </row>
     <row r="332">
-      <c r="A332" s="3">
+      <c r="A332" s="5">
         <v>331.0</v>
       </c>
       <c r="B332" s="4">
@@ -2980,7 +2983,7 @@
       </c>
     </row>
     <row r="333">
-      <c r="A333" s="3">
+      <c r="A333" s="5">
         <v>332.0</v>
       </c>
       <c r="B333" s="4">
@@ -2988,7 +2991,7 @@
       </c>
     </row>
     <row r="334">
-      <c r="A334" s="3">
+      <c r="A334" s="5">
         <v>333.0</v>
       </c>
       <c r="B334" s="4">
@@ -2996,7 +2999,7 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" s="3">
+      <c r="A335" s="5">
         <v>334.0</v>
       </c>
       <c r="B335" s="4">
@@ -3004,7 +3007,7 @@
       </c>
     </row>
     <row r="336">
-      <c r="A336" s="3">
+      <c r="A336" s="5">
         <v>335.0</v>
       </c>
       <c r="B336" s="4">
@@ -3012,7 +3015,7 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" s="3">
+      <c r="A337" s="5">
         <v>336.0</v>
       </c>
       <c r="B337" s="4">
@@ -3020,7 +3023,7 @@
       </c>
     </row>
     <row r="338">
-      <c r="A338" s="3">
+      <c r="A338" s="5">
         <v>337.0</v>
       </c>
       <c r="B338" s="4">
@@ -3028,7 +3031,7 @@
       </c>
     </row>
     <row r="339">
-      <c r="A339" s="3">
+      <c r="A339" s="5">
         <v>338.0</v>
       </c>
       <c r="B339" s="4">
@@ -3036,7 +3039,7 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" s="3">
+      <c r="A340" s="5">
         <v>339.0</v>
       </c>
       <c r="B340" s="4">
@@ -3044,7 +3047,7 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" s="3">
+      <c r="A341" s="5">
         <v>340.0</v>
       </c>
       <c r="B341" s="4">
@@ -3052,7 +3055,7 @@
       </c>
     </row>
     <row r="342">
-      <c r="A342" s="3">
+      <c r="A342" s="5">
         <v>341.0</v>
       </c>
       <c r="B342" s="4">
@@ -3060,7 +3063,7 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" s="3">
+      <c r="A343" s="5">
         <v>342.0</v>
       </c>
       <c r="B343" s="4">
@@ -3068,7 +3071,7 @@
       </c>
     </row>
     <row r="344">
-      <c r="A344" s="3">
+      <c r="A344" s="5">
         <v>343.0</v>
       </c>
       <c r="B344" s="4">
@@ -3076,7 +3079,7 @@
       </c>
     </row>
     <row r="345">
-      <c r="A345" s="3">
+      <c r="A345" s="5">
         <v>344.0</v>
       </c>
       <c r="B345" s="4">
@@ -3084,7 +3087,7 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" s="3">
+      <c r="A346" s="5">
         <v>345.0</v>
       </c>
       <c r="B346" s="4">
@@ -3092,7 +3095,7 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" s="3">
+      <c r="A347" s="5">
         <v>346.0</v>
       </c>
       <c r="B347" s="4">
@@ -3100,7 +3103,7 @@
       </c>
     </row>
     <row r="348">
-      <c r="A348" s="3">
+      <c r="A348" s="5">
         <v>347.0</v>
       </c>
       <c r="B348" s="4">
@@ -3108,7 +3111,7 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" s="3">
+      <c r="A349" s="5">
         <v>348.0</v>
       </c>
       <c r="B349" s="4">
@@ -3116,7 +3119,7 @@
       </c>
     </row>
     <row r="350">
-      <c r="A350" s="3">
+      <c r="A350" s="5">
         <v>349.0</v>
       </c>
       <c r="B350" s="4">
@@ -3124,7 +3127,7 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" s="3">
+      <c r="A351" s="5">
         <v>350.0</v>
       </c>
       <c r="B351" s="4">
@@ -3132,7 +3135,7 @@
       </c>
     </row>
     <row r="352">
-      <c r="A352" s="3">
+      <c r="A352" s="5">
         <v>351.0</v>
       </c>
       <c r="B352" s="4">
@@ -3140,7 +3143,7 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" s="3">
+      <c r="A353" s="5">
         <v>352.0</v>
       </c>
       <c r="B353" s="4">
@@ -3148,7 +3151,7 @@
       </c>
     </row>
     <row r="354">
-      <c r="A354" s="3">
+      <c r="A354" s="5">
         <v>353.0</v>
       </c>
       <c r="B354" s="4">
@@ -3156,7 +3159,7 @@
       </c>
     </row>
     <row r="355">
-      <c r="A355" s="3">
+      <c r="A355" s="5">
         <v>354.0</v>
       </c>
       <c r="B355" s="4">
@@ -3164,7 +3167,7 @@
       </c>
     </row>
     <row r="356">
-      <c r="A356" s="3">
+      <c r="A356" s="5">
         <v>355.0</v>
       </c>
       <c r="B356" s="4">
@@ -3172,7 +3175,7 @@
       </c>
     </row>
     <row r="357">
-      <c r="A357" s="3">
+      <c r="A357" s="5">
         <v>356.0</v>
       </c>
       <c r="B357" s="4">
@@ -3180,7 +3183,7 @@
       </c>
     </row>
     <row r="358">
-      <c r="A358" s="3">
+      <c r="A358" s="5">
         <v>357.0</v>
       </c>
       <c r="B358" s="4">
@@ -3188,7 +3191,7 @@
       </c>
     </row>
     <row r="359">
-      <c r="A359" s="3">
+      <c r="A359" s="5">
         <v>358.0</v>
       </c>
       <c r="B359" s="4">
@@ -3196,7 +3199,7 @@
       </c>
     </row>
     <row r="360">
-      <c r="A360" s="3">
+      <c r="A360" s="5">
         <v>359.0</v>
       </c>
       <c r="B360" s="4">
@@ -3204,7 +3207,7 @@
       </c>
     </row>
     <row r="361">
-      <c r="A361" s="3">
+      <c r="A361" s="5">
         <v>360.0</v>
       </c>
       <c r="B361" s="4">
